--- a/_static/data/city_data.xlsx
+++ b/_static/data/city_data.xlsx
@@ -5,31 +5,9 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Blatt 1" sheetId="1" r:id="rId5"/>
+    <sheet name="Blatt 1" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -87,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -99,13 +77,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +107,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -137,6 +126,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -144,7 +155,112 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -152,24 +268,7 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="11"/>
       </top>
@@ -179,12 +278,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="11"/>
       </top>
@@ -194,44 +289,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -244,41 +307,56 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -298,8 +376,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -318,10 +398,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -498,11 +578,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -511,33 +594,33 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -776,12 +859,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1062,7 +1145,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1333,7 +1416,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1348,258 +1431,229 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" ht="20.05" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" t="s" s="3">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="G3" t="s" s="5">
+      <c r="G3" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="H3" t="s" s="5">
+      <c r="H3" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="I3" t="s" s="5">
+      <c r="I3" t="s" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="A5" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="B5" s="10" cm="1">
-        <f t="array" ref="B5">RANDBETWEEN(3,56)</f>
-        <v>8</v>
-      </c>
-      <c r="C5" s="11" cm="1">
-        <f t="array" ref="C5">RANDBETWEEN(3,56)</f>
-        <v>53</v>
-      </c>
-      <c r="D5" s="11" cm="1">
-        <f t="array" ref="D5">RANDBETWEEN(3,56)</f>
-        <v>56</v>
-      </c>
-      <c r="E5" s="11" cm="1">
-        <f t="array" ref="E5">RANDBETWEEN(3,56)</f>
-        <v>53</v>
-      </c>
-      <c r="F5" s="11" cm="1">
-        <f t="array" ref="F5">RANDBETWEEN(3,56)</f>
-        <v>8</v>
-      </c>
-      <c r="G5" s="11" cm="1">
-        <f t="array" ref="G5">RANDBETWEEN(3,56)</f>
-        <v>33</v>
-      </c>
-      <c r="H5" s="11" cm="1">
-        <f t="array" ref="H5">RANDBETWEEN(3,56)</f>
-        <v>22</v>
-      </c>
-      <c r="I5" s="11" cm="1">
-        <f t="array" ref="I5">RANDBETWEEN(3,56)</f>
-        <v>12</v>
+      <c r="B5" s="12">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13">
+        <v>41</v>
+      </c>
+      <c r="E5" s="13">
+        <v>19</v>
+      </c>
+      <c r="F5" s="13">
+        <v>52</v>
+      </c>
+      <c r="G5" s="13">
+        <v>7</v>
+      </c>
+      <c r="H5" s="13">
+        <v>46</v>
+      </c>
+      <c r="I5" s="13">
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="A6" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B6" s="10" cm="1">
-        <f t="array" ref="B6">RANDBETWEEN(3,56)</f>
-        <v>49</v>
-      </c>
-      <c r="C6" s="11" cm="1">
-        <f t="array" ref="C6">RANDBETWEEN(3,56)</f>
-        <v>11</v>
-      </c>
-      <c r="D6" s="11" cm="1">
-        <f t="array" ref="D6">RANDBETWEEN(3,56)</f>
-        <v>49</v>
-      </c>
-      <c r="E6" s="11" cm="1">
-        <f t="array" ref="E6">RANDBETWEEN(3,56)</f>
-        <v>38</v>
-      </c>
-      <c r="F6" s="11" cm="1">
-        <f t="array" ref="F6">RANDBETWEEN(3,56)</f>
+      <c r="B6" s="12">
+        <v>44</v>
+      </c>
+      <c r="C6" s="13">
         <v>37</v>
       </c>
-      <c r="G6" s="11" cm="1">
-        <f t="array" ref="G6">RANDBETWEEN(3,56)</f>
-        <v>16</v>
-      </c>
-      <c r="H6" s="11" cm="1">
-        <f t="array" ref="H6">RANDBETWEEN(3,56)</f>
-        <v>7</v>
-      </c>
-      <c r="I6" s="11" cm="1">
-        <f t="array" ref="I6">RANDBETWEEN(3,56)</f>
-        <v>34</v>
+      <c r="D6" s="13">
+        <v>47</v>
+      </c>
+      <c r="E6" s="13">
+        <v>46</v>
+      </c>
+      <c r="F6" s="13">
+        <v>4</v>
+      </c>
+      <c r="G6" s="13">
+        <v>8</v>
+      </c>
+      <c r="H6" s="13">
+        <v>15</v>
+      </c>
+      <c r="I6" s="13">
+        <v>30</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
+      <c r="A7" t="s" s="11">
         <v>12</v>
       </c>
-      <c r="B7" s="10" cm="1">
-        <f t="array" ref="B7">RANDBETWEEN(3,56)</f>
+      <c r="B7" s="12">
         <v>17</v>
       </c>
-      <c r="C7" s="11" cm="1">
-        <f t="array" ref="C7">RANDBETWEEN(3,56)</f>
-        <v>23</v>
-      </c>
-      <c r="D7" s="11" cm="1">
-        <f t="array" ref="D7">RANDBETWEEN(3,56)</f>
+      <c r="C7" s="13">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13">
+        <v>31</v>
+      </c>
+      <c r="E7" s="13">
+        <v>21</v>
+      </c>
+      <c r="F7" s="13">
+        <v>44</v>
+      </c>
+      <c r="G7" s="13">
         <v>53</v>
       </c>
-      <c r="E7" s="11" cm="1">
-        <f t="array" ref="E7">RANDBETWEEN(3,56)</f>
-        <v>11</v>
-      </c>
-      <c r="F7" s="11" cm="1">
-        <f t="array" ref="F7">RANDBETWEEN(3,56)</f>
-        <v>35</v>
-      </c>
-      <c r="G7" s="11" cm="1">
-        <f t="array" ref="G7">RANDBETWEEN(3,56)</f>
-        <v>19</v>
-      </c>
-      <c r="H7" s="11" cm="1">
-        <f t="array" ref="H7">RANDBETWEEN(3,56)</f>
-        <v>30</v>
-      </c>
-      <c r="I7" s="11" cm="1">
-        <f t="array" ref="I7">RANDBETWEEN(3,56)</f>
-        <v>7</v>
+      <c r="H7" s="13">
+        <v>47</v>
+      </c>
+      <c r="I7" s="13">
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
+      <c r="A8" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="B8" s="10" cm="1">
-        <f t="array" ref="B8">RANDBETWEEN(3,56)</f>
-        <v>32</v>
-      </c>
-      <c r="C8" s="11" cm="1">
-        <f t="array" ref="C8">RANDBETWEEN(3,56)</f>
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" cm="1">
-        <f t="array" ref="D8">RANDBETWEEN(3,56)</f>
-        <v>44</v>
-      </c>
-      <c r="E8" s="11" cm="1">
-        <f t="array" ref="E8">RANDBETWEEN(3,56)</f>
-        <v>5</v>
-      </c>
-      <c r="F8" s="11" cm="1">
-        <f t="array" ref="F8">RANDBETWEEN(3,56)</f>
-        <v>50</v>
-      </c>
-      <c r="G8" s="11" cm="1">
-        <f t="array" ref="G8">RANDBETWEEN(3,56)</f>
-        <v>39</v>
-      </c>
-      <c r="H8" s="11" cm="1">
-        <f t="array" ref="H8">RANDBETWEEN(3,56)</f>
-        <v>4</v>
-      </c>
-      <c r="I8" s="11" cm="1">
-        <f t="array" ref="I8">RANDBETWEEN(3,56)</f>
-        <v>51</v>
+      <c r="B8" s="12">
+        <v>42</v>
+      </c>
+      <c r="C8" s="13">
+        <v>12</v>
+      </c>
+      <c r="D8" s="13">
+        <v>12</v>
+      </c>
+      <c r="E8" s="13">
+        <v>35</v>
+      </c>
+      <c r="F8" s="13">
+        <v>27</v>
+      </c>
+      <c r="G8" s="13">
+        <v>56</v>
+      </c>
+      <c r="H8" s="13">
+        <v>35</v>
+      </c>
+      <c r="I8" s="13">
+        <v>28</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="9">
+      <c r="A9" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B9" s="10" cm="1">
-        <f t="array" ref="B9">RANDBETWEEN(3,56)</f>
-        <v>18</v>
-      </c>
-      <c r="C9" s="11" cm="1">
-        <f t="array" ref="C9">RANDBETWEEN(3,56)</f>
-        <v>13</v>
-      </c>
-      <c r="D9" s="11" cm="1">
-        <f t="array" ref="D9">RANDBETWEEN(3,56)</f>
-        <v>26</v>
-      </c>
-      <c r="E9" s="11" cm="1">
-        <f t="array" ref="E9">RANDBETWEEN(3,56)</f>
-        <v>46</v>
-      </c>
-      <c r="F9" s="11" cm="1">
-        <f t="array" ref="F9">RANDBETWEEN(3,56)</f>
-        <v>14</v>
-      </c>
-      <c r="G9" s="11" cm="1">
-        <f t="array" ref="G9">RANDBETWEEN(3,56)</f>
-        <v>7</v>
-      </c>
-      <c r="H9" s="11" cm="1">
-        <f t="array" ref="H9">RANDBETWEEN(3,56)</f>
-        <v>5</v>
-      </c>
-      <c r="I9" s="11" cm="1">
-        <f t="array" ref="I9">RANDBETWEEN(3,56)</f>
-        <v>32</v>
-      </c>
+      <c r="B9" s="12">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13">
+        <v>42</v>
+      </c>
+      <c r="D9" s="13">
+        <v>41</v>
+      </c>
+      <c r="E9" s="13">
+        <v>30</v>
+      </c>
+      <c r="F9" s="13">
+        <v>53</v>
+      </c>
+      <c r="G9" s="13">
+        <v>25</v>
+      </c>
+      <c r="H9" s="13">
+        <v>33</v>
+      </c>
+      <c r="I9" s="13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
